--- a/demo/SSD-NHANES-2017-2018-demo.xlsx
+++ b/demo/SSD-NHANES-2017-2018-demo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henrique/git/nhanes-hadatac/metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henrique/git/nhanes-hadatac/demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CB2D27-028F-204A-B8EA-43AF6C27E267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7657563F-33C2-6C45-AC5C-9607757542CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="660" windowWidth="27640" windowHeight="16440" xr2:uid="{99F202CB-6519-5442-830D-344A4E1B0030}"/>
   </bookViews>
@@ -85,18 +85,12 @@
     <t>source</t>
   </si>
   <si>
-    <t>hhear-kb:STD-NHANES-2017-2018</t>
-  </si>
-  <si>
     <t>hasco:Study</t>
   </si>
   <si>
     <t>#SOC-NHANES-2017-2018-SUBJECTS</t>
   </si>
   <si>
-    <t>hhear-kb:SOC-NHANES-2017-2018-SUBJECTS</t>
-  </si>
-  <si>
     <t>hasco:SubjectGroup</t>
   </si>
   <si>
@@ -122,6 +116,12 @@
   </si>
   <si>
     <t>sio:SIO_000485</t>
+  </si>
+  <si>
+    <t>nhanes-kb:STD-NHANES-2017-2018</t>
+  </si>
+  <si>
+    <t>nhanes-kb:SOC-NHANES-2017-2018-SUBJECTS</t>
   </si>
 </sst>
 </file>
@@ -475,9 +475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B088F3-3515-904B-9B51-EE2323ADDBE3}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -489,7 +487,7 @@
     <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="38.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
@@ -547,36 +545,36 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
         <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -601,16 +599,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>25</v>
-      </c>
-      <c r="C1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -618,7 +616,7 @@
         <v>93703</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -626,7 +624,7 @@
         <v>93704</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -634,7 +632,7 @@
         <v>93705</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -642,7 +640,7 @@
         <v>93706</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -650,7 +648,7 @@
         <v>93707</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -658,7 +656,7 @@
         <v>93708</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -666,7 +664,7 @@
         <v>93709</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -674,7 +672,7 @@
         <v>93710</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -682,7 +680,7 @@
         <v>93711</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -690,7 +688,7 @@
         <v>93712</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -698,7 +696,7 @@
         <v>93713</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -706,7 +704,7 @@
         <v>93714</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -714,7 +712,7 @@
         <v>93715</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -722,7 +720,7 @@
         <v>93716</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -730,7 +728,7 @@
         <v>93717</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -738,7 +736,7 @@
         <v>93718</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -746,7 +744,7 @@
         <v>93719</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -754,7 +752,7 @@
         <v>93720</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -762,7 +760,7 @@
         <v>93721</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -770,7 +768,7 @@
         <v>93722</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -778,7 +776,7 @@
         <v>93723</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -786,7 +784,7 @@
         <v>93724</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -794,7 +792,7 @@
         <v>93725</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -802,7 +800,7 @@
         <v>93726</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -810,7 +808,7 @@
         <v>93727</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -818,7 +816,7 @@
         <v>93728</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -826,7 +824,7 @@
         <v>93729</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -834,7 +832,7 @@
         <v>93730</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -842,7 +840,7 @@
         <v>93731</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -850,7 +848,7 @@
         <v>93732</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -858,7 +856,7 @@
         <v>93733</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -866,7 +864,7 @@
         <v>93734</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -874,7 +872,7 @@
         <v>93735</v>
       </c>
       <c r="B34" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -882,7 +880,7 @@
         <v>93736</v>
       </c>
       <c r="B35" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -890,7 +888,7 @@
         <v>93737</v>
       </c>
       <c r="B36" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -898,7 +896,7 @@
         <v>93738</v>
       </c>
       <c r="B37" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -906,7 +904,7 @@
         <v>93739</v>
       </c>
       <c r="B38" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -914,7 +912,7 @@
         <v>93740</v>
       </c>
       <c r="B39" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -922,7 +920,7 @@
         <v>93741</v>
       </c>
       <c r="B40" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -930,7 +928,7 @@
         <v>93742</v>
       </c>
       <c r="B41" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -938,7 +936,7 @@
         <v>93743</v>
       </c>
       <c r="B42" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -946,7 +944,7 @@
         <v>93744</v>
       </c>
       <c r="B43" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -954,7 +952,7 @@
         <v>93745</v>
       </c>
       <c r="B44" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -962,7 +960,7 @@
         <v>93746</v>
       </c>
       <c r="B45" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -970,7 +968,7 @@
         <v>93747</v>
       </c>
       <c r="B46" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -978,7 +976,7 @@
         <v>93748</v>
       </c>
       <c r="B47" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -986,7 +984,7 @@
         <v>93749</v>
       </c>
       <c r="B48" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -994,7 +992,7 @@
         <v>93750</v>
       </c>
       <c r="B49" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -1002,7 +1000,7 @@
         <v>93751</v>
       </c>
       <c r="B50" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -1010,7 +1008,7 @@
         <v>93752</v>
       </c>
       <c r="B51" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -1018,7 +1016,7 @@
         <v>93753</v>
       </c>
       <c r="B52" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -1026,7 +1024,7 @@
         <v>93754</v>
       </c>
       <c r="B53" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1034,7 +1032,7 @@
         <v>93755</v>
       </c>
       <c r="B54" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -1042,7 +1040,7 @@
         <v>93756</v>
       </c>
       <c r="B55" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -1050,7 +1048,7 @@
         <v>93757</v>
       </c>
       <c r="B56" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -1058,7 +1056,7 @@
         <v>93758</v>
       </c>
       <c r="B57" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -1066,7 +1064,7 @@
         <v>93759</v>
       </c>
       <c r="B58" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -1074,7 +1072,7 @@
         <v>93760</v>
       </c>
       <c r="B59" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -1082,7 +1080,7 @@
         <v>93761</v>
       </c>
       <c r="B60" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -1090,7 +1088,7 @@
         <v>93762</v>
       </c>
       <c r="B61" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -1098,7 +1096,7 @@
         <v>93763</v>
       </c>
       <c r="B62" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -1106,7 +1104,7 @@
         <v>93764</v>
       </c>
       <c r="B63" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -1114,7 +1112,7 @@
         <v>93765</v>
       </c>
       <c r="B64" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -1122,7 +1120,7 @@
         <v>93766</v>
       </c>
       <c r="B65" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -1130,7 +1128,7 @@
         <v>93767</v>
       </c>
       <c r="B66" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -1138,7 +1136,7 @@
         <v>93768</v>
       </c>
       <c r="B67" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -1146,7 +1144,7 @@
         <v>93769</v>
       </c>
       <c r="B68" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -1154,7 +1152,7 @@
         <v>93770</v>
       </c>
       <c r="B69" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -1162,7 +1160,7 @@
         <v>93771</v>
       </c>
       <c r="B70" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -1170,7 +1168,7 @@
         <v>93772</v>
       </c>
       <c r="B71" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -1178,7 +1176,7 @@
         <v>93773</v>
       </c>
       <c r="B72" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -1186,7 +1184,7 @@
         <v>93774</v>
       </c>
       <c r="B73" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -1194,7 +1192,7 @@
         <v>93775</v>
       </c>
       <c r="B74" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -1202,7 +1200,7 @@
         <v>93776</v>
       </c>
       <c r="B75" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -1210,7 +1208,7 @@
         <v>93777</v>
       </c>
       <c r="B76" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -1218,7 +1216,7 @@
         <v>93778</v>
       </c>
       <c r="B77" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -1226,7 +1224,7 @@
         <v>93779</v>
       </c>
       <c r="B78" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -1234,7 +1232,7 @@
         <v>93780</v>
       </c>
       <c r="B79" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -1242,7 +1240,7 @@
         <v>93781</v>
       </c>
       <c r="B80" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -1250,7 +1248,7 @@
         <v>93782</v>
       </c>
       <c r="B81" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -1258,7 +1256,7 @@
         <v>93783</v>
       </c>
       <c r="B82" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -1266,7 +1264,7 @@
         <v>93784</v>
       </c>
       <c r="B83" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -1274,7 +1272,7 @@
         <v>93785</v>
       </c>
       <c r="B84" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -1282,7 +1280,7 @@
         <v>93786</v>
       </c>
       <c r="B85" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -1290,7 +1288,7 @@
         <v>93787</v>
       </c>
       <c r="B86" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -1298,7 +1296,7 @@
         <v>93788</v>
       </c>
       <c r="B87" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -1306,7 +1304,7 @@
         <v>93789</v>
       </c>
       <c r="B88" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -1314,7 +1312,7 @@
         <v>93790</v>
       </c>
       <c r="B89" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -1322,7 +1320,7 @@
         <v>93791</v>
       </c>
       <c r="B90" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -1330,7 +1328,7 @@
         <v>93792</v>
       </c>
       <c r="B91" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
@@ -1338,7 +1336,7 @@
         <v>93793</v>
       </c>
       <c r="B92" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
@@ -1346,7 +1344,7 @@
         <v>93794</v>
       </c>
       <c r="B93" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -1354,7 +1352,7 @@
         <v>93795</v>
       </c>
       <c r="B94" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -1362,7 +1360,7 @@
         <v>93796</v>
       </c>
       <c r="B95" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -1370,7 +1368,7 @@
         <v>93797</v>
       </c>
       <c r="B96" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -1378,7 +1376,7 @@
         <v>93798</v>
       </c>
       <c r="B97" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -1386,7 +1384,7 @@
         <v>93799</v>
       </c>
       <c r="B98" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -1394,7 +1392,7 @@
         <v>93800</v>
       </c>
       <c r="B99" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -1402,7 +1400,7 @@
         <v>93801</v>
       </c>
       <c r="B100" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -1410,7 +1408,7 @@
         <v>93802</v>
       </c>
       <c r="B101" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
